--- a/legislator/property/output/normal/吳育仁_2012-03-06_財產申報表_tmp476d1.xlsx
+++ b/legislator/property/output/normal/吳育仁_2012-03-06_財產申報表_tmp476d1.xlsx
@@ -20,9 +20,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="101">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="117">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市大安區學府段一小段05930000地號</t>
+  </si>
+  <si>
+    <t>雲林縣斗六市斗六段09060005地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區瑞安段一小段02810000地號</t>
+  </si>
+  <si>
+    <t>10000分之77</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之424</t>
+  </si>
+  <si>
+    <t>吳育仁</t>
+  </si>
+  <si>
+    <t>蔡瓊姿</t>
+  </si>
+  <si>
+    <t>97年05月07日</t>
+  </si>
+  <si>
+    <t>91年01月04日</t>
+  </si>
+  <si>
+    <t>95年11月07日</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>16000000((房地總價額）)</t>
+  </si>
+  <si>
+    <t>((房地總價額）超過五年）</t>
+  </si>
+  <si>
+    <t>((房地總價額）過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-03-06</t>
+  </si>
+  <si>
+    <t>tmp476d1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,115 +145,61 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大安區學府段一小段 0593-0000 地號</t>
-  </si>
-  <si>
-    <t>雲林縣斗六市斗六段 0906-0005 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區瑞安段一小段 0281-0000 地號</t>
-  </si>
-  <si>
-    <t>10000分之 77</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之 424</t>
-  </si>
-  <si>
-    <t>吳育仁</t>
-  </si>
-  <si>
-    <t>蔡瓊姿</t>
-  </si>
-  <si>
-    <t>97年05月 07日</t>
-  </si>
-  <si>
-    <t>91年01月 04日</t>
-  </si>
-  <si>
-    <t>95年11月 07日</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>16,000,000((房 地總價額）)</t>
-  </si>
-  <si>
-    <t>((房地總價額） 超過五年）</t>
-  </si>
-  <si>
-    <t>((房地總價額） 過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市大安區學府段一小段 01612-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區學府段一小段 03396-000 建號</t>
-  </si>
-  <si>
-    <t>雲林縣斗六市斗六段六小段 05763-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區瑞安段一小段 02859-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區瑞安段一小段 02860-000 建號 J</t>
-  </si>
-  <si>
-    <t>臺北市大安區瑞安段一小段 02864-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區瑞安段一小段 02844-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區學府段一小段 03391-000 建號</t>
-  </si>
-  <si>
-    <t>10000分之 3429</t>
-  </si>
-  <si>
-    <t>10000分之 473</t>
-  </si>
-  <si>
-    <t>10000分之 5237</t>
-  </si>
-  <si>
-    <t>10000分之 426</t>
-  </si>
-  <si>
-    <t>10000分之 82</t>
-  </si>
-  <si>
-    <t>88年04月 08日</t>
-  </si>
-  <si>
-    <t>88年07月 20日</t>
-  </si>
-  <si>
-    <t>crTJ-sS 貝賈</t>
-  </si>
-  <si>
-    <t>□33 貝賈</t>
-  </si>
-  <si>
-    <t>16，000，000((房 地總價額）與台 北市大安區學府 段一小段一起購 買）</t>
-  </si>
-  <si>
-    <t>16，000，000((房 地總價額）與台 北市大安區學府 段一小段一起購 買（共同使用部 分）</t>
-  </si>
-  <si>
-    <t>16,000’000((房 地總價額）與台 北市大安區學府 段一小段一起購 買）</t>
+    <t>臺北市大安區學府段一小段01612000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區學府段一小段03396000建號</t>
+  </si>
+  <si>
+    <t>雲林縣斗六市斗六段六小段05763000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區瑞安段一小段02859000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區瑞安段一小段02860000建號J</t>
+  </si>
+  <si>
+    <t>臺北市大安區瑞安段一小段02864000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區瑞安段一小段02844000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區學府段一小段03391000建號</t>
+  </si>
+  <si>
+    <t>10000分之3429</t>
+  </si>
+  <si>
+    <t>10000分之473</t>
+  </si>
+  <si>
+    <t>10000分之5237</t>
+  </si>
+  <si>
+    <t>10000分之426</t>
+  </si>
+  <si>
+    <t>10000分之82</t>
+  </si>
+  <si>
+    <t>88年04月08日</t>
+  </si>
+  <si>
+    <t>88年07月20日</t>
+  </si>
+  <si>
+    <t>crTJsS貝賈</t>
+  </si>
+  <si>
+    <t>□33貝賈</t>
+  </si>
+  <si>
+    <t>16000000((房地總價額）與台北市大安區學府段一小段一起購買）</t>
+  </si>
+  <si>
+    <t>16000000((房地總價額）與台北市大安區學府段一小段一起購買（共同使用部分）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -166,7 +214,7 @@
     <t>BMW</t>
   </si>
   <si>
-    <t>98年11月 01曰</t>
+    <t>98年11月01曰</t>
   </si>
   <si>
     <t>貝買</t>
@@ -193,7 +241,7 @@
     <t>種類</t>
   </si>
   <si>
-    <t>臺灣中小企業銀行斗六分 行</t>
+    <t>臺灣中小企業銀行斗六分行</t>
   </si>
   <si>
     <t>玉山商業銀行斗六分行</t>
@@ -208,7 +256,7 @@
     <t>元大商業銀行斗信分行</t>
   </si>
   <si>
-    <t>中國信託商業銀行斗六分 行</t>
+    <t>中國信託商業銀行斗六分行</t>
   </si>
   <si>
     <t>綜合存款</t>
@@ -232,10 +280,10 @@
     <t>有</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及#</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>財產種類</t>
   </si>
   <si>
     <t>鑽戒</t>
@@ -265,22 +313,22 @@
     <t>珍珠</t>
   </si>
   <si>
-    <t>-他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>項 / 件</t>
-  </si>
-  <si>
-    <t>' 2</t>
-  </si>
-  <si>
-    <t>t額：新臺幣6, 740, 000元）</t>
-  </si>
-  <si>
-    <t>價 額</t>
-  </si>
-  <si>
-    <t>720,000 ( 1 2 兩）</t>
+    <t>他具有相當價值之財產（總作</t>
+  </si>
+  <si>
+    <t>項件</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>t額：新臺幣6740000元）</t>
+  </si>
+  <si>
+    <t>價額</t>
+  </si>
+  <si>
+    <t>720000(12兩）</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -322,7 +370,7 @@
     <t>外幣終身保險</t>
   </si>
   <si>
-    <t>意外骨折及特定手術傷害保 險</t>
+    <t>意外骨折及特定手術傷害保險</t>
   </si>
 </sst>
 </file>
@@ -681,13 +729,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,83 +757,167 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>812</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1734</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1734</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>1138</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1734</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -803,25 +935,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -829,25 +961,25 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>56.62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -855,25 +987,25 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2">
         <v>6.76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -881,22 +1013,22 @@
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2">
         <v>282.1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -905,22 +1037,22 @@
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2">
         <v>126.47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -929,22 +1061,22 @@
         <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2">
         <v>419.31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -953,22 +1085,22 @@
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2">
         <v>33.63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -977,22 +1109,22 @@
         <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2">
         <v>202.63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -1001,25 +1133,25 @@
         <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2">
         <v>1303.56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1037,22 +1169,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1060,19 +1192,19 @@
         <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2">
         <v>2500</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2">
         <v>2250000</v>
@@ -1093,16 +1225,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1110,10 +1242,10 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
@@ -1125,10 +1257,10 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
         <v>10000</v>
@@ -1142,10 +1274,10 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
@@ -1167,19 +1299,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1187,16 +1319,16 @@
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>1091484</v>
@@ -1207,16 +1339,16 @@
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
         <v>87346</v>
@@ -1227,16 +1359,16 @@
         <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>17322</v>
@@ -1247,16 +1379,16 @@
         <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2">
         <v>1300000</v>
@@ -1267,16 +1399,16 @@
         <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2">
         <v>331608</v>
@@ -1287,16 +1419,16 @@
         <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2">
         <v>137600</v>
@@ -1317,16 +1449,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1334,13 +1466,13 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1349,16 +1481,16 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1366,13 +1498,13 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2">
         <v>1000000</v>
@@ -1383,13 +1515,13 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2">
         <v>600000</v>
@@ -1400,13 +1532,13 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2">
         <v>800000</v>
@@ -1417,13 +1549,13 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2">
         <v>600000</v>
@@ -1434,16 +1566,16 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1451,13 +1583,13 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2">
         <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2">
         <v>1300000</v>
@@ -1468,13 +1600,13 @@
         <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2">
         <v>300000</v>
@@ -1485,13 +1617,13 @@
         <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2">
         <v>200000</v>
@@ -1502,13 +1634,13 @@
         <v>94</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2">
         <v>500000</v>
@@ -1519,13 +1651,13 @@
         <v>95</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2">
         <v>280000</v>
@@ -1536,13 +1668,13 @@
         <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2">
         <v>440000</v>
@@ -1563,13 +1695,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1577,13 +1709,13 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1591,13 +1723,13 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1605,13 +1737,13 @@
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1619,13 +1751,13 @@
         <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1633,13 +1765,13 @@
         <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1647,13 +1779,13 @@
         <v>107</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1661,13 +1793,13 @@
         <v>108</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳育仁_2012-03-06_財產申報表_tmp476d1.xlsx
+++ b/legislator/property/output/normal/吳育仁_2012-03-06_財產申報表_tmp476d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="95">
   <si>
     <t>name</t>
   </si>
@@ -64,7 +64,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市大安區學府段一小段05930000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>雲林縣斗六市斗六段09060005地號</t>
@@ -73,9 +76,6 @@
     <t>臺北市大安區瑞安段一小段02810000地號</t>
   </si>
   <si>
-    <t>10000分之77</t>
-  </si>
-  <si>
     <t>全部</t>
   </si>
   <si>
@@ -88,64 +88,43 @@
     <t>蔡瓊姿</t>
   </si>
   <si>
+    <t>91年01月04日</t>
+  </si>
+  <si>
+    <t>95年11月07日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>((房地總價額）超過五年）</t>
+  </si>
+  <si>
+    <t>((房地總價額）過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-03-06</t>
+  </si>
+  <si>
+    <t>tmp476d1</t>
+  </si>
+  <si>
+    <t>臺北市大安區學府段一小段01612000建號</t>
+  </si>
+  <si>
     <t>97年05月07日</t>
   </si>
   <si>
-    <t>91年01月04日</t>
-  </si>
-  <si>
-    <t>95年11月07日</t>
-  </si>
-  <si>
     <t>貝賣</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>16000000((房地總價額）)</t>
-  </si>
-  <si>
-    <t>((房地總價額）超過五年）</t>
-  </si>
-  <si>
-    <t>((房地總價額）過五年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-03-06</t>
-  </si>
-  <si>
-    <t>tmp476d1</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市大安區學府段一小段01612000建號</t>
+    <t>16000000((房地總價額）與台北市大安區學府段一小段一起購買）</t>
   </si>
   <si>
     <t>臺北市大安區學府段一小段03396000建號</t>
@@ -196,153 +175,111 @@
     <t>□33貝賈</t>
   </si>
   <si>
-    <t>16000000((房地總價額）與台北市大安區學府段一小段一起購買）</t>
-  </si>
-  <si>
     <t>16000000((房地總價額）與台北市大安區學府段一小段一起購買（共同使用部分）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>98年11月01曰</t>
+  </si>
+  <si>
+    <t>貝買</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行斗六分行</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>玉山商業銀行斗六分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行斗六分行</t>
+  </si>
+  <si>
+    <t>台北大學郵局</t>
+  </si>
+  <si>
+    <t>元大商業銀行斗信分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行斗六分行</t>
+  </si>
+  <si>
+    <t>其他存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總作</t>
+  </si>
+  <si>
+    <t>t額：新臺幣6740000元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>鑽戒</t>
+  </si>
+  <si>
+    <t>手錶</t>
+  </si>
+  <si>
+    <t>項鍊</t>
+  </si>
+  <si>
+    <t>手鐲</t>
+  </si>
+  <si>
+    <t>黃金</t>
+  </si>
+  <si>
+    <t>字畫</t>
+  </si>
+  <si>
+    <t>木雕</t>
+  </si>
+  <si>
+    <t>琉璃</t>
+  </si>
+  <si>
+    <t>珍珠</t>
+  </si>
+  <si>
+    <t>項件</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>BMW</t>
-  </si>
-  <si>
-    <t>98年11月01曰</t>
-  </si>
-  <si>
-    <t>貝買</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>存放機構(應敛明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行斗六分行</t>
-  </si>
-  <si>
-    <t>玉山商業銀行斗六分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行斗六分行</t>
-  </si>
-  <si>
-    <t>台北大學郵局</t>
-  </si>
-  <si>
-    <t>元大商業銀行斗信分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行斗六分行</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>其他存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>鑽戒</t>
-  </si>
-  <si>
-    <t>手錶</t>
-  </si>
-  <si>
-    <t>項鍊</t>
-  </si>
-  <si>
-    <t>手鐲</t>
-  </si>
-  <si>
-    <t>黃金</t>
-  </si>
-  <si>
-    <t>字畫</t>
-  </si>
-  <si>
-    <t>木雕</t>
-  </si>
-  <si>
-    <t>琉璃</t>
-  </si>
-  <si>
-    <t>珍珠</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>項件</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>t額：新臺幣6740000元）</t>
-  </si>
-  <si>
     <t>價額</t>
   </si>
   <si>
     <t>720000(12兩）</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>全球人壽</t>
   </si>
   <si>
+    <t>理財型增額終身壽險</t>
+  </si>
+  <si>
     <t>宏泰人壽</t>
   </si>
   <si>
@@ -350,9 +287,6 @@
   </si>
   <si>
     <t>南山人壽</t>
-  </si>
-  <si>
-    <t>理財型增額終身壽險</t>
   </si>
   <si>
     <t>防癌終身健康保險</t>
@@ -729,13 +663,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,19 +712,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>812</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -799,19 +739,19 @@
         <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>20</v>
@@ -820,45 +760,51 @@
         <v>1734</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>116</v>
+        <v>1138</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>20</v>
@@ -867,57 +813,16 @@
         <v>1734</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1138</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1734</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="2">
-        <v>15</v>
+      <c r="P3" s="2">
+        <v>0.0424</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>48.2512</v>
       </c>
     </row>
   </sheetData>
@@ -927,7 +832,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -935,223 +840,197 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1">
+        <v>56.62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
-        <v>56.62</v>
+        <v>6.76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
-        <v>6.76</v>
+        <v>282.1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2">
-        <v>282.1</v>
+        <v>126.47</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2">
-        <v>126.47</v>
+        <v>419.31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2">
-        <v>419.31</v>
+        <v>33.63</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2">
-        <v>33.63</v>
+        <v>202.63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2">
-        <v>202.63</v>
+        <v>1303.56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>28</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1303.56</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1161,52 +1040,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2500</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2500</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="2">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1">
         <v>2250000</v>
       </c>
     </row>
@@ -1217,7 +1073,194 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>292000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>3000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1091484</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
+        <v>87346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <v>17322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2">
+        <v>331608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>137600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1228,294 +1271,70 @@
         <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2">
-        <v>2000000</v>
+        <v>79</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2">
-        <v>10000</v>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E3" s="2">
-        <v>292000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E4" s="2">
-        <v>3000000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>54</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1091484</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>55</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2">
-        <v>87346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>56</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2">
-        <v>17322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>57</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1300000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>58</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2">
-        <v>331608</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>59</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2">
-        <v>137600</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>84</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>85</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>86</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -1524,159 +1343,142 @@
         <v>21</v>
       </c>
       <c r="E5" s="2">
-        <v>600000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="2">
-        <v>800000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2">
-        <v>600000</v>
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>102</v>
+        <v>21</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1300000</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="2">
-        <v>1300000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="2">
-        <v>300000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="2">
-        <v>200000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
+        <v>70</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2">
-        <v>500000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>99</v>
+        <v>71</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="2">
-        <v>280000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>96</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="2">
         <v>440000</v>
       </c>
     </row>
@@ -1687,7 +1489,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1695,24 +1497,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -1720,13 +1522,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
@@ -1734,13 +1536,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
@@ -1748,13 +1550,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
@@ -1762,13 +1564,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
@@ -1776,29 +1578,15 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>108</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/legislator/property/output/normal/吳育仁_2012-03-06_財產申報表_tmp476d1.xlsx
+++ b/legislator/property/output/normal/吳育仁_2012-03-06_財產申報表_tmp476d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="98">
   <si>
     <t>name</t>
   </si>
@@ -70,12 +70,18 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市大安區學府段一小段05930000地號</t>
+  </si>
+  <si>
     <t>雲林縣斗六市斗六段09060005地號</t>
   </si>
   <si>
     <t>臺北市大安區瑞安段一小段02810000地號</t>
   </si>
   <si>
+    <t>10000分之77</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
@@ -88,15 +94,24 @@
     <t>蔡瓊姿</t>
   </si>
   <si>
+    <t>97年05月07日</t>
+  </si>
+  <si>
     <t>91年01月04日</t>
   </si>
   <si>
     <t>95年11月07日</t>
   </si>
   <si>
+    <t>貝賣</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
+    <t>16000000((房地總價額）)</t>
+  </si>
+  <si>
     <t>((房地總價額）超過五年）</t>
   </si>
   <si>
@@ -118,61 +133,55 @@
     <t>臺北市大安區學府段一小段01612000建號</t>
   </si>
   <si>
-    <t>97年05月07日</t>
-  </si>
-  <si>
-    <t>貝賣</t>
+    <t>臺北市大安區學府段一小段03396000建號</t>
+  </si>
+  <si>
+    <t>雲林縣斗六市斗六段六小段05763000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區瑞安段一小段02859000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區瑞安段一小段02860000建號J</t>
+  </si>
+  <si>
+    <t>臺北市大安區瑞安段一小段02864000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區瑞安段一小段02844000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區學府段一小段03391000建號</t>
+  </si>
+  <si>
+    <t>10000分之3429</t>
+  </si>
+  <si>
+    <t>10000分之473</t>
+  </si>
+  <si>
+    <t>10000分之5237</t>
+  </si>
+  <si>
+    <t>10000分之426</t>
+  </si>
+  <si>
+    <t>10000分之82</t>
+  </si>
+  <si>
+    <t>88年04月08日</t>
+  </si>
+  <si>
+    <t>88年07月20日</t>
+  </si>
+  <si>
+    <t>crTJsS貝賈</t>
+  </si>
+  <si>
+    <t>□33貝賈</t>
   </si>
   <si>
     <t>16000000((房地總價額）與台北市大安區學府段一小段一起購買）</t>
-  </si>
-  <si>
-    <t>臺北市大安區學府段一小段03396000建號</t>
-  </si>
-  <si>
-    <t>雲林縣斗六市斗六段六小段05763000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區瑞安段一小段02859000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區瑞安段一小段02860000建號J</t>
-  </si>
-  <si>
-    <t>臺北市大安區瑞安段一小段02864000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區瑞安段一小段02844000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區學府段一小段03391000建號</t>
-  </si>
-  <si>
-    <t>10000分之3429</t>
-  </si>
-  <si>
-    <t>10000分之473</t>
-  </si>
-  <si>
-    <t>10000分之5237</t>
-  </si>
-  <si>
-    <t>10000分之426</t>
-  </si>
-  <si>
-    <t>10000分之82</t>
-  </si>
-  <si>
-    <t>88年04月08日</t>
-  </si>
-  <si>
-    <t>88年07月20日</t>
-  </si>
-  <si>
-    <t>crTJsS貝賈</t>
-  </si>
-  <si>
-    <t>□33貝賈</t>
   </si>
   <si>
     <t>16000000((房地總價額）與台北市大安區學府段一小段一起購買（共同使用部分）</t>
@@ -663,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -721,107 +730,160 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>116</v>
+        <v>812</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2">
         <v>1734</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
-        <v>1</v>
+        <v>0.0077</v>
       </c>
       <c r="Q2" s="2">
-        <v>116</v>
+        <v>6.2524</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1138</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2">
         <v>1734</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O3" s="2">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
         <v>15</v>
       </c>
-      <c r="P3" s="2">
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1138</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1734</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+      <c r="P4" s="2">
         <v>0.0424</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q4" s="2">
         <v>48.2512</v>
       </c>
     </row>
@@ -832,205 +894,474 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2">
         <v>56.62</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1734</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>56.62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6.76</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1734</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="2">
-        <v>6.76</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="O3" s="2">
+        <v>21</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.3429</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2.318004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2">
+        <v>282.1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1734</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="2">
+        <v>22</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>282.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2">
+        <v>126.47</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1734</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="2">
+        <v>23</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>126.47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2">
+        <v>419.31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1734</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="2">
+        <v>24</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0473</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>19.833363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2">
+        <v>33.63</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1734</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="2">
+        <v>25</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.5237</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>17.612031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="C8" s="2">
+        <v>202.63</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1734</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="2">
+        <v>27</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.0426</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>8.632038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1303.56</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2">
-        <v>282.1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2">
-        <v>126.47</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="G9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="2">
-        <v>419.31</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="2">
-        <v>33.63</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>27</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2">
-        <v>202.63</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
+      <c r="K9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1734</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="2">
         <v>28</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1303.56</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>34</v>
+      <c r="P9" s="2">
+        <v>0.0082</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>10.689192</v>
       </c>
     </row>
   </sheetData>
@@ -1040,29 +1371,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1">
         <v>2500</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1">
+        <v>2250000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="2">
         <v>2250000</v>
       </c>
     </row>
@@ -1073,7 +1427,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1081,10 +1435,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -1093,33 +1447,48 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2">
-        <v>10000</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>292000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>292000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
         <v>50</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
         <v>3000000</v>
       </c>
     </row>
@@ -1130,7 +1499,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1138,16 +1507,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1">
         <v>1091484</v>
@@ -1155,101 +1524,121 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2">
-        <v>87346</v>
+        <v>1091484</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2">
-        <v>17322</v>
+        <v>87346</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2">
-        <v>1300000</v>
+        <v>17322</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
+        <v>57</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2">
-        <v>331608</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
+        <v>58</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2">
+        <v>331608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>59</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2">
         <v>137600</v>
       </c>
     </row>
@@ -1260,7 +1649,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1268,217 +1657,232 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3</v>
+        <v>72</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1000000</v>
+        <v>84</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2">
-        <v>600000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2">
-        <v>800000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2">
-        <v>600000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>83</v>
+        <v>23</v>
+      </c>
+      <c r="E7" s="2">
+        <v>600000</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1300000</v>
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2">
-        <v>300000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2">
-        <v>200000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2">
-        <v>500000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2">
-        <v>280000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
+        <v>95</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
         <v>96</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="2">
         <v>2</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2">
         <v>440000</v>
       </c>
     </row>
@@ -1489,7 +1893,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1497,97 +1901,111 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
+        <v>107</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
         <v>108</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
+      <c r="B8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳育仁_2012-03-06_財產申報表_tmp476d1.xlsx
+++ b/legislator/property/output/normal/吳育仁_2012-03-06_財產申報表_tmp476d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="99">
   <si>
     <t>name</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>16000000((房地總價額）與台北市大安區學府段一小段一起購買（共同使用部分）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>BMW</t>
@@ -1371,38 +1374,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1">
-        <v>2500</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2250000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2">
         <v>2500</v>
@@ -1411,13 +1435,34 @@
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2">
         <v>2250000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1734</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1480,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
@@ -1450,7 +1495,7 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1465,7 +1510,7 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -1482,7 +1527,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -1507,13 +1552,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1527,13 +1572,13 @@
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1547,13 +1592,13 @@
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1567,13 +1612,13 @@
         <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1587,13 +1632,13 @@
         <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1607,13 +1652,13 @@
         <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -1627,13 +1672,13 @@
         <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -1657,13 +1702,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1672,13 +1717,13 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1687,16 +1732,16 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1704,7 +1749,7 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -1721,7 +1766,7 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -1738,7 +1783,7 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -1755,7 +1800,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -1772,7 +1817,7 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2">
         <v>12</v>
@@ -1781,7 +1826,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1789,7 +1834,7 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2">
         <v>50</v>
@@ -1806,7 +1851,7 @@
         <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -1823,7 +1868,7 @@
         <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
@@ -1840,7 +1885,7 @@
         <v>94</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -1857,10 +1902,10 @@
         <v>95</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
@@ -1874,7 +1919,7 @@
         <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
@@ -1901,10 +1946,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
@@ -1915,10 +1960,10 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
@@ -1929,10 +1974,10 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
@@ -1943,10 +1988,10 @@
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
@@ -1957,10 +2002,10 @@
         <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
@@ -1971,10 +2016,10 @@
         <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
@@ -1985,10 +2030,10 @@
         <v>107</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -1999,10 +2044,10 @@
         <v>108</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>

--- a/legislator/property/output/normal/吳育仁_2012-03-06_財產申報表_tmp476d1.xlsx
+++ b/legislator/property/output/normal/吳育仁_2012-03-06_財產申報表_tmp476d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="101">
   <si>
     <t>name</t>
   </si>
@@ -187,6 +187,9 @@
     <t>16000000((房地總價額）與台北市大安區學府段一小段一起購買（共同使用部分）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -197,6 +200,9 @@
   </si>
   <si>
     <t>貝買</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>新臺幣</t>
@@ -979,7 +985,7 @@
         <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>33</v>
@@ -1032,7 +1038,7 @@
         <v>54</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>33</v>
@@ -1083,7 +1089,7 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>33</v>
@@ -1134,7 +1140,7 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>33</v>
@@ -1185,7 +1191,7 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>33</v>
@@ -1236,7 +1242,7 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>33</v>
@@ -1287,7 +1293,7 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>33</v>
@@ -1340,7 +1346,7 @@
         <v>53</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>33</v>
@@ -1385,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1426,7 +1432,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2">
         <v>2500</v>
@@ -1435,16 +1441,16 @@
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2">
         <v>2250000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -1480,7 +1486,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
@@ -1495,7 +1501,7 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1510,7 +1516,7 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -1527,7 +1533,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -1552,13 +1558,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1572,13 +1578,13 @@
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1592,13 +1598,13 @@
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1612,13 +1618,13 @@
         <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1632,13 +1638,13 @@
         <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1652,13 +1658,13 @@
         <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -1672,13 +1678,13 @@
         <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -1702,13 +1708,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1717,13 +1723,13 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1732,16 +1738,16 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1749,7 +1755,7 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -1766,7 +1772,7 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -1783,7 +1789,7 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -1800,7 +1806,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -1817,7 +1823,7 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2">
         <v>12</v>
@@ -1826,7 +1832,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1834,7 +1840,7 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2">
         <v>50</v>
@@ -1851,7 +1857,7 @@
         <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -1868,7 +1874,7 @@
         <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
@@ -1885,7 +1891,7 @@
         <v>94</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -1902,10 +1908,10 @@
         <v>95</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
@@ -1919,7 +1925,7 @@
         <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
@@ -1946,10 +1952,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
@@ -1960,10 +1966,10 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
@@ -1974,10 +1980,10 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
@@ -1988,10 +1994,10 @@
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
@@ -2002,10 +2008,10 @@
         <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
@@ -2016,10 +2022,10 @@
         <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
@@ -2030,10 +2036,10 @@
         <v>107</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -2044,10 +2050,10 @@
         <v>108</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>

--- a/legislator/property/output/normal/吳育仁_2012-03-06_財產申報表_tmp476d1.xlsx
+++ b/legislator/property/output/normal/吳育仁_2012-03-06_財產申報表_tmp476d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="106">
   <si>
     <t>name</t>
   </si>
@@ -205,37 +205,52 @@
     <t>car</t>
   </si>
   <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
     <t>美金</t>
   </si>
   <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
     <t>臺灣中小企業銀行斗六分行</t>
   </si>
   <si>
+    <t>玉山商業銀行斗六分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行斗六分行</t>
+  </si>
+  <si>
+    <t>台北大學郵局</t>
+  </si>
+  <si>
+    <t>元大商業銀行斗信分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行斗六分行</t>
+  </si>
+  <si>
     <t>綜合存款</t>
   </si>
   <si>
-    <t>玉山商業銀行斗六分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行斗六分行</t>
-  </si>
-  <si>
-    <t>台北大學郵局</t>
-  </si>
-  <si>
-    <t>元大商業銀行斗信分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行斗六分行</t>
-  </si>
-  <si>
     <t>其他存款</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>(九）珠寶古董字畫及#</t>
@@ -1478,69 +1493,147 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2">
+      <c r="D2" s="2">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1734</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E3" s="2">
         <v>292000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1734</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
+      <c r="D4" s="2">
         <v>3000000</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1734</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1550,41 +1643,62 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1091484</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1592,19 +1706,40 @@
       <c r="F2" s="2">
         <v>1091484</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1734</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1612,19 +1747,40 @@
       <c r="F3" s="2">
         <v>87346</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1734</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1632,19 +1788,40 @@
       <c r="F4" s="2">
         <v>17322</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1734</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1652,19 +1829,40 @@
       <c r="F5" s="2">
         <v>1300000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1734</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -1672,25 +1870,67 @@
       <c r="F6" s="2">
         <v>331608</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1734</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="2">
         <v>137600</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1734</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="2">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1708,13 +1948,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1723,13 +1963,13 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1738,16 +1978,16 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1755,7 +1995,7 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -1772,7 +2012,7 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -1789,7 +2029,7 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -1806,7 +2046,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -1823,7 +2063,7 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2">
         <v>12</v>
@@ -1832,7 +2072,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1840,7 +2080,7 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2">
         <v>50</v>
@@ -1857,7 +2097,7 @@
         <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -1874,7 +2114,7 @@
         <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
@@ -1891,7 +2131,7 @@
         <v>94</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -1908,10 +2148,10 @@
         <v>95</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
@@ -1925,7 +2165,7 @@
         <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
@@ -1952,10 +2192,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
@@ -1966,10 +2206,10 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
@@ -1980,10 +2220,10 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
@@ -1994,10 +2234,10 @@
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
@@ -2008,10 +2248,10 @@
         <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
@@ -2022,10 +2262,10 @@
         <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
@@ -2036,10 +2276,10 @@
         <v>107</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -2050,10 +2290,10 @@
         <v>108</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>

--- a/legislator/property/output/normal/吳育仁_2012-03-06_財產申報表_tmp476d1.xlsx
+++ b/legislator/property/output/normal/吳育仁_2012-03-06_財產申報表_tmp476d1.xlsx
@@ -12,7 +12,7 @@
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="現金" sheetId="4" r:id="rId4"/>
     <sheet name="存款" sheetId="5" r:id="rId5"/>
-    <sheet name="其他有價證券" sheetId="6" r:id="rId6"/>
+    <sheet name="具有相當價值之財產" sheetId="6" r:id="rId6"/>
     <sheet name="保險" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="101">
   <si>
     <t>name</t>
   </si>
@@ -253,16 +253,7 @@
     <t>deposit</t>
   </si>
   <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>t額：新臺幣6740000元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
+    <t>quantity</t>
   </si>
   <si>
     <t>鑽戒</t>
@@ -292,19 +283,13 @@
     <t>珍珠</t>
   </si>
   <si>
-    <t>項件</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
     <t>720000(12兩）</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>全球人壽</t>
@@ -1940,82 +1925,170 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1734</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>84</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>85</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2">
+        <v>600000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1734</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>86</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>800000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1734</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
@@ -2023,81 +2096,186 @@
       <c r="E5" s="2">
         <v>600000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1734</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
+        <v>90</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1734</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>91</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>89</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C7" s="2">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>1300000</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1734</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2">
+        <v>300000</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1734</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>93</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="2">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>91</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C9" s="2">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="2">
-        <v>1300000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>200000</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1734</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -2106,75 +2284,104 @@
         <v>23</v>
       </c>
       <c r="E10" s="2">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>500000</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1734</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
+        <v>78</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>280000</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1734</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>95</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="2">
-        <v>280000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
+        <v>440000</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1734</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="2">
         <v>96</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="2">
-        <v>440000</v>
       </c>
     </row>
   </sheetData>
@@ -2192,10 +2399,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
@@ -2206,10 +2413,10 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
@@ -2220,10 +2427,10 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
@@ -2234,10 +2441,10 @@
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
@@ -2248,10 +2455,10 @@
         <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
@@ -2262,10 +2469,10 @@
         <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
@@ -2276,10 +2483,10 @@
         <v>107</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -2290,10 +2497,10 @@
         <v>108</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>

--- a/legislator/property/output/normal/吳育仁_2012-03-06_財產申報表_tmp476d1.xlsx
+++ b/legislator/property/output/normal/吳育仁_2012-03-06_財產申報表_tmp476d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="103">
   <si>
     <t>name</t>
   </si>
@@ -289,24 +289,27 @@
     <t>720000(12兩）</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>全球人壽</t>
   </si>
   <si>
+    <t>宏泰人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
     <t>理財型增額終身壽險</t>
   </si>
   <si>
-    <t>宏泰人壽</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
     <t>防癌終身健康保險</t>
   </si>
   <si>
@@ -323,6 +326,9 @@
   </si>
   <si>
     <t>意外骨折及特定手術傷害保險</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -2391,52 +2397,115 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1734</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1734</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>103</v>
       </c>
@@ -2444,13 +2513,34 @@
         <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1734</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>104</v>
       </c>
@@ -2458,13 +2548,34 @@
         <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1734</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>105</v>
       </c>
@@ -2472,13 +2583,34 @@
         <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1734</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>107</v>
       </c>
@@ -2486,13 +2618,34 @@
         <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1734</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>108</v>
       </c>
@@ -2500,10 +2653,31 @@
         <v>94</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1734</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="2">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳育仁_2012-03-06_財產申報表_tmp476d1.xlsx
+++ b/legislator/property/output/normal/吳育仁_2012-03-06_財產申報表_tmp476d1.xlsx
@@ -14,13 +14,14 @@
     <sheet name="存款" sheetId="5" r:id="rId5"/>
     <sheet name="具有相當價值之財產" sheetId="6" r:id="rId6"/>
     <sheet name="保險" sheetId="7" r:id="rId7"/>
+    <sheet name="債務" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="110">
   <si>
     <t>name</t>
   </si>
@@ -329,6 +330,27 @@
   </si>
   <si>
     <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>房屋貸款</t>
+  </si>
+  <si>
+    <t>吳肓仁</t>
+  </si>
+  <si>
+    <t>玉山銀行臺北市中山區民生東路</t>
+  </si>
+  <si>
+    <t>購屋</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2683,4 +2705,102 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>118</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="2">
+        <v>14036373</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1734</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>